--- a/results/correct models/R4-computer-game1/attributes_inclusion_check.xlsx
+++ b/results/correct models/R4-computer-game1/attributes_inclusion_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,5647 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>a planet has a murder site</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 implies the possibility of a murder site existing on a planet, but it does not confirm that a planet does in fact have a murder site.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. In Statement 2, it implies that a planet might have a murder site but it doesn't confirm that a planet has a murder site.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 implies that a murder site may exist on a planet, but it does not confirm that a planet actually has a murder site.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 implies there may be a murder site on a planet, but it does not confirm it, as it stated in Statement 1.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Because Statement 2 only talks about the possibility or the objective to determine if there was a murder on a planet, it does not confirm that a planet has a murder site. However, Statement 1 is a confirmation that a planet does have a murder site.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 only suggests the possibility of a planet being a murder site, but it does not definitively state that a planet is a murder site.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 does support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a legal move has a speed</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The second statement refers to the speed of a player reaching a destination but does not specifically mention a legal move.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 talks about the wheel's spin deciding speed but does not refer to any legal move.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not refer to or imply anything about a "legal move."</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 by implying that speed comes into play during a game, and in this case, it's influenced by the spin of a wheel, which could be considered a "legal move."</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 provides information about how to win a game, while statement 1 is about a legal move - the specific number of such moves is not mentioned in statement 2.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 since they discuss different topics without any logical sequence or connection. Statement 2 discusses a hypothetical game scenario while Statement 1 simply underlines a concept of a 'legal move' without any context or connection to the game scenario represented in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement talks about a specific rule of a game which involves announcing a murder hypothesis and not about the legal moves or their number in a game.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. In the described game, a legal move involves spinning the wheel to determine a number of moves.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. While Statement 2 describes a game with a certain mechanism for determining moves, it does not specifically define what a "legal move" is or if every move is considered "legal."</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be directly derived from Statement 2. While Statement 2 suggests a game where players make a specific number of moves based on spinning a wheel, it doesn't specify if these moves are considered "legal" moves, which is a specific term mentioned in Statement 1. The concept of a "legal move" is not directly addressed or defined in Statement 2.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. The randomly selected number of moves determined by the wheel spin in the game described in Statement 2 can be construed as the "number moves" of a legal move mentioned in Statement 1.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. Statement 2 explains that the game includes a feature where players make a legal move by spinning a wheel to determine a randomly selected number of moves. Therefore, it can be concluded that a legal move involves a number of moves in this game.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it explains a scenario where a legal move in a game is determined by the number of moves which is randomly selected.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different aspects of a game - Statement 1 is about the mechanics of a move in the game, while Statement 2 is about the overall structure of the game application. There is no information in Statement 2 that would allow someone to determine the rules or limitations around a 'legal move' as discussed in Statement 1.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects and are not directly related. The first statement is about the number of moves in a game, while the second one is about the structure of an application.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They are discussing different aspects of what appears to be a game; the first is discussing the concept of moves while the second is discussing the structure of how the game application will be set up.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about the strategy of a game involving asking questions, selecting destinations, and deducing a murder scenario but it does not reference any legal move or number of moves.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The second statement doesn't provide any information about a legal move or its number of moves in the game.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The latter doesn't provide any specific information about the rules or moves in the Galaxy Sleuth game.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements are about different topics; one is about a class project for a specific game and the other is about a vague concept of legal moves in an unspecified context. There is no logical progression or link from one statement to the other.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different contexts and do not possess enough information to infer one from the other.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are speaking about different contexts and do not have a logical connection.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are not related.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss separate concepts.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot be determined from statement 2. They discuss different aspects of a game and there's no information in statement 2 that could be used to determine statement 1.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. They are discussing different aspects of a game - Statement 2 is about the server's role in coordinating communication and events, while Statement 1 is about the specific characteristics of a legal move in the game.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different aspects and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different topics; Statement 1 is about a legal move in a game, while Statement 2 is about the graphical representation of entry points in a game. There's no information in Statement 2 that could suggest or imply anything about a 'legal move' or the 'number moves'.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They discuss different concepts and one does not provide information for the other.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are talking about different concepts.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects of a game and the second statement does not provide information about legal moves or their number.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They are talking about different things and there is no clear connection between the number of moves in a legal move and the depiction of entry points in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. There's no connection or relevant information between the two statements.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different topics. Statement 1 is too vague and doesn't specify what kind of move, while Statement 2 is about a specific rule in what appears to be a board game.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different topics and there is no connection or common elements between them.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because they discuss completely different topics. There is no clear logical connection between a "legal move" and the rules of a specific game involving wormhole connections between planets.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 provides information about a specific way to move in a game but does not provide sufficient information about all legal moves or their number in the game.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different aspects of a game; Statement 2 describes its online multiplayer format, while Statement 1 talks about specific gameplay mechanics. Nothing in Statement 2 provides information on the number of moves in a legal move.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The number of moves in a game does not necessarily correlate with the game being Internet-based.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The information in Statement 2 gives us no details about any particular moves within the game or their legality, and therefore it does not lead us to Statement 1.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement talks about the nature of the game being internet-based and allowing remote participation, while the first statement is about a unspecified legal move having number moves, which is unrelated to the information provided in Statement 2.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. They are discussing different aspects of a game and do not have a logical connection.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different aspects of a game and Statement 2 provides no information on the mechanics of legal moves, as Statement 1 requires.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of a game and there is no logical connection from which we could derive one from the other.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. They are about different aspects of a game and one doesn't provide basis for the conclusion of the other.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a legal move has  number moves</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 discusses reaching suspicious locations quickly as part of gameplay, but does not provide any information about legal moves or the number of legal moves.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different aspects of what could be a game scenario, but there is no logical or cause-effect link between them.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss two entirely unrelated topics.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. They are about different topics and do not have a cause-effect relationship.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are about different subjects with no clear connection.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different subjects and do not have a logical connection.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. They are about different subjects.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The information in Statement 2 includes nothing about a particular player winning or having a winner.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These two statements are talking about different aspects of a game. Statement 2 talks about the technical side of a game, whereas Statement 1 talks about the result of a game.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 discusses entry points in a game, but says nothing about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2 as they both discuss different aspects and have no relation between them. Statement 1 refers to a 'player' and 'winner', while Statement 2 describes the visual elements on a game board.</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The information given in statement 2 is about how entry points are graphically depicted in a game and has no connection to whether or not a player has a winner.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information given in the two statements are not related.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The phrase "a player has a winner" does not relate to or follow from the information given about the rule of a game in Statement 2.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement doesn't provide any information about a player winning.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 discusses the rules of a game, but it does not provide any information about the results of the game or whether a player has won.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different aspects of a game or scenario. There is no relevant connection between the concept of a player winning and the availability of wormholes for travel.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. They are discussing different aspects of possibly a game and provide no link or correlation to each other.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These statements talk about different subjects and do not provide information relating to each other.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are regarding different aspects and do not logically connect.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects and have no apparent connection.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The statements are talking about different aspects of a game. Statement 2 does not provide any information about a player winning, which is what Statement 1 is about.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The second statement refers to a rule of the game but it does not provide information about whether a player has a winner or not.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These two statements are discussing different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different aspects of gameplay and do not have a logical or causal relationship.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The rules of moving in the game mentioned in Statement 2 does not provide evidence or information concerning a player being a winner in Statement 1.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements talk about different subjects and there is no correlation or link between them.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements are about different topics and do not provide information related to each other.</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 does not provide any information about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 provides a detailed description of the game but does not provide a direct reference or information to the winning or losing status of a particular player in the game.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement talks about the nature of a game but does not provide information on whether a player has a winner.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because Statement 2 does not provide any information about a player winning or having a winner.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 gives a description of the game but doesn't provide information about a player winning the game.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different topics where one is about a game winner and the other is about a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement about a refuted hypothesis and the need for evidence has no logical connection or relevance to the first statement about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 provides a rule for winning the game but it doesn't confirm that "a player has a winner". It doesn't provide any specific information about a player or who the winner might be.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot logically follow from statement 2. Statement 2 talks about the method to win a game, but does not necessarily imply that a player has a winner.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of a game and don't have enough common information to derive one from the other.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The first statement is about winning a game and the second statement discusses a specific game mechanic or rule, but does not provide information about the outcome of the game or who wins or loses.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different circumstances and do not relate to each other in a way that one can logically follow from the other.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are about different subjects and do not relate to one another in a way that allows for implication.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The objective of the game mentioned in Statement 2 doesn't provide specific information about whether a player has a winner or not.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The second statement is about the objective of a game and does not provide information about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The objective of the game does not necessarily infer that a player has a winner.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 talks about an element being determined by luck and the spinning of a wheel affecting the player's speed to a destination. There is no mention or implication of a player winning or having a winner in Statement 2.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are unrelated as they refer to different contexts. Statement 2 does not provide any information about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. These statements are unrelated.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different topics. The first discusses a game or competition, while the second discusses physical location or travel.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different topics and don't provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They discuss different aspects and do not have a direct correlation.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different unrelated topics. Statement 1 refers to a competitive situation in a game while Statement 2 refers to the location of a player in terms of a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot be concluded based on statement 2. The two statements are not related.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements are about completely different topics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they discuss two completely separate topics. The first statement discusses winning, while the second statement discusses investigation of planets for a murder site.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about completely different topics, thus one cannot draw conclusions for one from the other.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The statements are about different topics and don't provide information about each other.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of what appears to be a game - one refers to a player having a winner and the other to a rule about not revisiting the same planet. There's no connection between having a winner and revisiting a planet, based on the information given.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These two statements talk about different aspects - one talks about winning and the other talks about the rules of a game. They have no logical connection.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they are talking about two different subjects. Statement 2 is about the rules of a game, while Statement 1 is about the outcome of a game. There is no logical connection between the two statements as presented.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information provided in Statement 2 does not provide any information about the success or victory of a player.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. These two statements discuss different aspects of a game or performance and are not directly related to each other.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 doesn't provide any information on winning or losing of a player.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 provides information about a hypothetical game - likely a murder mystery game, but it says nothing about winning or a 'winner'. Therefore, it cannot imply Statement 1.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different contexts - one about a winner in a game and another about players getting unique information in a murder mystery game.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The first statement pertains to a player having a winner, while the second statement is about players receiving different information about a murder, and these two concepts aren't logically connected.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information in Statement 2 does not provide any insight on whether a player has won or not.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. While Statement 2 outlines a process through which a player could win, it does not explicitly state that a player has won or is a winner.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The first statement is vague and does not provide enough information on what exactly "a player has a winner" means. The second statement explains a mechanism for winning a game, but it does not imply that "a player has a winner".</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. Statement 2 provides a process for a player to win the game, hence a player can have a winner.</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. If the player is able to correctly announce their murder hypothesis, then they would be the winner, therefore they "have a winner."</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 does support statement 1 as it explains a way a player can win (become a winner) in a game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The statements discuss different topics and share no common ground that would permit an implication.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. There is no information provided in Statement 2 about a player having a winner. It only talks about the requirements to visit a planet in a game scenario, not about winning or losing.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are talking about completely different subjects.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they discuss two completely different subjects.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different topics and do not relate to each other.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They discuss different topics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 provides information about the sharing of information in a game or scenario, whereas Statement 1 declares a winner in a game. These are two separate pieces of information that is not directly related or dependent on each other.</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They discuss different contexts - one mentions a winner, which suggests a game or competition, while the other discusses a murder mystery. Neither statement provides information about the other.</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different aspects of a game and do not have a logical cause-and-effect relationship.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different topics and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The first statement talks about a player having a winner, presumably in a game, but the second statement only discusses the structure of an application and does not provide information about game outcomes or winners.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing two different aspects - the structure of a game application and the result of a game. There is no logical connection between the two.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement discusses the structure of an application, but does not provide information on whether a player has a winner or not.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The second statement discusses a client/server structure for an application, but it does not provide any evidence or context to support the idea that a player has a winner.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 describes the strategy of a game but does not explicitly state that a player has won the game.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide any information about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The statements are about different topics. Statement 1 is vague and does not provide enough context, and Statement 2 only mentions a class project about creating a specific game, but does not indicate if a player has a winner.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 doesn't logically follow from Statement 2. The second statement sets out the goal of a class project and provides a brief description of the game being implemented, but it does not indicate or imply any information about a player or a winner.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 discusses how players can solve a hypothetical murder whereas Statement 1 seems to indicate that a player has won something. There is no logical connect between these two statements.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not provide information about a player having a winner.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The statements discuss different aspects of a game and don't provide enough information to draw a conclusion between the two.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are about different aspects of a game. Statement 2 does not provide any information about a player winning.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The conditions for winning are not defined in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information given about a player's movements within a game provides no evidence or context for assuming that a player has won anything.</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different aspects of a game and one does not provide information or context for the other.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different topics and there is no logical connection between them.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The concept of "having a winner" does not logically connect with the ability to "enter the planet's atmosphere in a different number of moves." These two statements deal with separate ideas.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are related to different contexts and Statement 2 does not provide any information about whether a player has a winner or not.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different subjects.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different topics - the first is about a player winning and the second is about a hypothesis being communicated. They do not share enough context or information for one to be determined from the other.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These two statements are not logically connected. The first statement is about a player having a winner while the second statement is about the communication of an un-denied hypothesis.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different aspects and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different topics and Statement 2 does not provide information on whether a player has a winner or not.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. These two statements are discussing different aspects and have no connection based on the information provided.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. They both are discussing completely different subjects.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are discussing different aspects and do not provide information related to each other.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different subjects and aren't logically connected.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects and have no logical connection.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. They are discussing different subjects. Statement 1 is about winning, whereas Statement 2 is about the mechanics of a game or simulation, specifically moving to a new location.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about completely different subjects.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are about different topics: the first is about winning, and the second is about disproving a hypothesis and communicating information.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss entirely different scenarios and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different topics and do not relate to one another in a way that allows a conclusion to be drawn.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The information about whether a player has a winner or not is not provided in Statement 2.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 provides information about the platform of the game (Internet-based), but it does not provide any information about the results of the game or whether any player has a winner.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The fact that the game is internet-based and can be played remotely does not provide any information on whether a player has won or not.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement mentions nothing about a player winning or having a winner.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The type of platform on which the game is played doesn't directly correlate with the fact that a player has a winner.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information in Statement 2 does not provide any evidence or information about a player being a winner.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>a player has a winner</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of a game and Statement 2 provides no insight into whether a player has a winner or not.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The statements discuss different topics.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are about different topics and do not have a logical connection.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss two different topics and Statement 2 gives no information about the existence of a loser in a game, which is what Statement 1 is discussing.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different topics and do not have a logical or causal relationship.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements discuss different topics and one doesn't provide relevant information for the other.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are about different subjects and Statement 2 does not provide information to conclude Statement 1.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>In contrast, the server coordinates communication between players and orchestrates the sequence of events of the game.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 is talking about the role of a server in a game, which doesn't provide information on whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The statements discuss different aspects of a game. Statement 1 talks about a player losing, whereas Statement 2 speaks about the role of a server in coordinating the game.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects of a game and are not directly related in such a way that one can draw conclusions from the other.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>These entry points are graphically depicted on the game as a diagonal line off a square on the board leading into a planet's atmosphere.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different topics.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These two statements discuss completely different subjects. One mentions a player having a loser, while the other discusses game design elements.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss completely different topics.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements are discussing different subjects. The first statement is about the status of a player in a game while the second statement is discussing the graphical representation of entry points in a game. There is no logical connection between the two.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects of a game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>A legal move consists of a player moving their token, the number of moves determined by the spinner, either horizontally or vertically, but not diagonally.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 provides information about how a game is played, but it does not provide any information about the result of the game or whether a player has a loser.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because Statement 2 describes a type of move in a game while Statement 1 includes an outcome or condition of the game which is not related to the descriptive content in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 provides information about the rules of a game play, but does not specify any winning or losing conditions based on which the conclusion in Statement 1 could be made.</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. These statements discuss different topics and there is no logical connection between them.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Players may also travel through a few strategically placed wormholes.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are discussing different topics and there is no logical connection between them.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. They provide information about completely different aspects and have no logical connection.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot be derived from statement 2. These statements discuss different topics – one refers to a player losing, the other to travel through wormholes. There is no logical connection or inference that can be made from statement 2 to derive statement 1.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. They are discussing two different aspects of a potential game and are not directly related.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss completely different topics.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Also, a player may not move into a cell occupied by another player's token.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 discusses the rules of a game, it does not provide information on whether a player can lose or not.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of a game and do not provide any information or context that could link them.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are talking about different aspects of a game - one is about potential losing and the other is about movement rules.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement is about movement restrictions in a game, while the first one is about a player being in a losing position. They discuss different aspects of a game without making a logical connection.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 talks about a rule in a game, but it does not provide information about a player losing or winning.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>No, statement 2 does not support statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 does not provide any information about a player losing in any context. It only discusses players' abilities to ask questions.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements are discussing different scenarios. Statement 1 is about the result of a game or competition, while Statement 2 is about communication between the players as they travel; there's no direct correlation between them.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information about a player having a loser.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The game is an intergalactic murder mystery, which emulates a board game scenario in which players spin a wheel to determine a randomly selected number of moves by which they travel through space to various planets.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement doesn't provide any information about a player having a loser.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide any information about winners or losers in the game.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 describes the nature of the game but does not give any information about whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement does not provide any information about a player being a loser or having a loser.</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 does not provide information on whether players can "lose" in the described game, so we cannot draw a conclusion about a player having a "loser".</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide any information about a player losing or having a loser.</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements are about different subjects, so one cannot be a logical consequence of the other.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot be concluded based on statement 2.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The statements discuss different aspects of a game- one discussing a player losing, the other discussing the rules of the game when a hypothesis is incorrect. They do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement does not mention or imply that the player has a 'loser'. It only describes a situation where a player loses a game and what happens after that.</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The first player to accomplish this wins the game.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 simply states a rule of the game, it does not provide information on whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A player whose token resides on one of four planets having wormhole connections to other planets may choose not to spin the spinner and take the wormhole directly to the other planet.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These two statements talk about different topics and do not have any logical connections that would allow for conclusion of statement 1 from statement 2.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects of what is presumably a game they are referencing. Statement 1 talks about a player having a loser, while Statement 2 talks about specific moves a player can make in the game. There is no apparent logical way to derive Statement 1 from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects of a game and there is no logical connection or sequence between them.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 talks about the options a player has in a game involving planets and wormholes, but it gives no information about winners or losers.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>If a player draws an incorrect conclusion, they lose the game.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Just because a player could potentially lose a game doesn't mean that he/she will lose, or has already lost.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Statement 2 talks about a player losing a game due to incorrect conclusion but it does not imply that the player has a 'loser' or is beaten by another player. Hence, there is no logical progression from Statement 2 to Statement 1.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement only provides a condition under which a player can lose, but it doesn't necessarily mean that the player has lost or has a loser.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are talking about different contexts; Statement 1 is about the outcome of a competition or game, while Statement 2 is about communicating a solution to all players. None provides information about the other.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 can't be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The information or context provided in Statement 2 does not lead to or support the conclusion in Statement 1.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>The game's objective is to gather clues while traveling about the universe.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements deal with different topics: losing or winning a game, versus the objective of a particular game. The first statement's relevance to the second is not established.</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The objective of the game provided in Statement 2 doesn't provide any information about whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>This element is primarily dictated by luck since the wheel's spin determines the speed at which a player reaches a destination.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 does not provide any information about a player losing.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information regarding a player having a loser.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The player is considered to be on the planet as soon as the planet's atmosphere has been entered.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements discuss different subjects and are not related.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different topics.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about separate subjects and Statement 2 gives no information about a player having a loser.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These two statements discuss completely different topics.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No, statement 1 does not logically follow from statement 2.</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are unrelated.</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>The objective of player movement throughout the universe is to investigate specific planets to determine if that was the murder site.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different contexts and do not provide information that is related.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss wholly different topics with no logical connection.</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are not related.</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A player may not re-visit the same planet on a single turn.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements seem to cover different subjects – losing in a game versus game rules about revisiting planets – and no clear connection can be drawn between them.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are referring to completely different contexts within gameplay - Statement 2 is about a rule of movement, while Statement 1 refers to a player's outcome or status. They do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects and have no logical connection.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. These two statements are discussing completely different concepts; the first is about a competition outcome, while the second describes a rule within a game.</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different aspects of gameplay and do not provide information about the other.</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>No, statement 2 does not support statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The player may change directions multiple times but cannot enter the same cell twice during a single turn.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different aspects of a game, and the rules stated in Statement 2 do not provide information about whether a player has lost or not.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These statements discuss different aspects of what could be a game, with no explicit logical connection between them.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Both statements are related to a player, however, Statement 2 does not provide any information about the player having a loser.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 is about the rules of a game and does not provide information on whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The information in Statement 2 does not provide any details about anyone losing or winning.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 gives information about a game and how it functions, but does not provide information about any aspect of winning or losing, which is what Statement 1 is about.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement does not provide any information about winning, losing, or competition between players.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information given in Statement 2 has nothing to do with winning or losing.</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>No, statement 2 does not support statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 discusses the condition under which a player wins a game, but does not provide information regarding the presence of a loser.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the second statement only describes how a player wins the game and says nothing about a player losing or having a loser.</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>No, Statement 2 doesn't support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>To visit a planet, a player must enter the planet's atmosphere at one of the predefined entry points.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. These two statements discuss completely different topics. Statement 1 refers to someone losing in a game, whereas Statement 2 refers to the rules of visiting a planet in perhaps a game or a theoretical discussion. There is no logical connection or implication between the two.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different subjects and have no contextual connection.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different topics and have no logical connection.</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different topics; one mentions a player having a loser, while the other discusses the requirements for a player to visit a planet. There is no logical connection or progression from Statement 2 to Statement 1.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information in Statement 2 does not provide any details about a player having a loser or not.</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different topics and do not share a logical connection.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects and Statement 2 does not provide information on whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different topics. Statement 2 is about a hypothesis in relation to a murder scenario, while Statement 1 is about a player having a "loser" - the context for which is not provided. Therefore, we can't conclude Statement 1 from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss completely different topics. The first statement talks about a player having a loser, which sounds like it's from a game context. The second statement, however, discusses a murder mystery scenario, which has nothing to do with winning or losing in the sense that the first statement implies.</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>This application will, therefore, take on a client/server structure where each client supports one player's view of the game.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects and do not provide sufficient information about each other.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 discusses a client/server structure for a game application and does not provide information on whether or not a player has a loser.</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Statement 2 discusses a technical structure of an application supporting a game and does not provide information on whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No, Statement 1 can't be concluded based on Statement 2. The second statement talks about the structure of an application, but it doesn't provide any information about a player having a loser.</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>The game's strategy is embodied in selecting questions to ask other players, selecting planet destinations, and efficiently deducing the correct murder scenario.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 does not provide any information about a player's wins or losses.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No, statement 1 cannot be derived from statement 2.</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement is about game strategies and doesn't provide any information about whether or not a player has a loser.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 provides information about the strategy of the game, but does not mention any player losing.</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>The goal of the class project is to implement an Internet-based, who-done-it-style game called Galaxy Sleuth.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement does not provide any information about a player having a loser.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement provides information about a class project to create a game but does not give specific details about the players or winners or losers in the game.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The second statement doesn't provide any information about a player having a loser.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The second statement provides information about a class project involving a game, but it does not indicate anything about a player or a loser.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 provides information about a class project of a game, but does not specify anything about a player or a loser.</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>After gathering a certain set of clues and applying deductive reasoning, players may deduce the perpetrator and circumstance of the murder.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different aspects of games - Statement 2 focuses on the process and strategy involved in a detective game, whereas Statement 1 generically discusses the concept of losing in a game. They are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>A player visits a planet by making legal moves on the board until a cell adjacent to an atmosphere entry point is reached.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 talks about the actions of a player in a game and does not provide information about the player having a loser.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements talk about different aspects and don't relate to each other.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements deal with completely different aspects and concepts related to a player - Statement 1 with winning or losing, and Statement 2 with movement or tactics within a game.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss completely different scenarios and are not related in any way.</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements discuss different aspects of a player's experience and neither one offers support or further context for the other.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>The player can enter the planet's atmosphere in a different number of moves.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss completely different concepts and provide no logical or contextual connection between them.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss completely different subjects: losing a game and the number of moves it takes to enter a planet's atmosphere. There is no connection or relevant information shared between the two.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss two completely different topics and there is no logical connection between them to allow for any form of derivation.</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different topics; one discusses a competition and the other discusses movements in a presumably game setting. There is no logical progression or causality between these statements.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss unrelated concepts.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as both statements discuss different subjects without any logical connection.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 talks about a hypothesis being denied and informing all players, which doesn't provide any information about a player having a loser or not.</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>It costs the player a single move to enter the atmosphere from the adjacent cell.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. These two statements discuss different aspects (losing and spatial movement) and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These statements are discussing two different topics and there is no information in Statement 2 that would allow us to determine the information in Statement 1.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are talking about different contexts - one about a player losing and the other about a player's move in a game.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because they are discussing two different topic. The first statement is about winning or losing in a game. The second statement talks about a specific action (moving) that a player takes in a game-like environment, particularly it doesn't suggest anything about winning or losing.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different contexts and don't relate to each other enough to imply information from one another.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different topics: Statement 2 is discussing a situation in which a player disproves a hypothesis, while Statement 1 is stating that a player has a loser.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss completely different subjects. One discusses a player having a loser, whereas the other discusses disproving a hypothesis and communication.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss different scenarios that do not directly correlate.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are discussing different aspects and do not have a logical connection.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>The game is Internet-based in that players can play each other from remote sites on the Internet.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 talks about the nature of the game being online and remote but doesn't provide information on whether a player has a loser or not.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about the platform and medium of the game, not the result or status of any player.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The fact that the game is Internet-based and allows remote play does not provide information about a specific player's success or failure in the game.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The fact that the game is Internet-based and allows remote play does not inherently mean that a player has lost or will lose.</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The second statement only provides information about the game being internet-based and that players can play from remote sites, it does not provide any information about the result of any games, whether there are winners or losers.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The fact that a game is internet-based and allows players to compete against each other from remote locations does not inherently mean that a player has a loser.</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Part of the game, therefore, involves reaching suspicious locations quickly to investigate them.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a player has a loser</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different aspects of gaming and are not directly related.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are about different aspects of gameplay and do not directly connect.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The information provided in Statement 2 does not relate to or provide any details concerning a player having a loser.</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The two statements discuss information, but in different contexts and scenarios. Statement 2 does not mention or suggest that a clue contains information, as stated in Statement 1.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 talks about a specific situation in a game where a player can disprove a hypothesis and that information being relayed to the inquiring player. Statement 1 is a more general statement about a clue having information. They discuss different topics and there is no direct logical connection or inference.</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements are about different aspects and don't have a logical connection. Statement 2 is about a process of communication and not about the properties or characteristics of a clue.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement is about how information is communicated between players and does not provide any information about whether a clue contains information or not.</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 speaks about players asking for information from each other, but does not specifically mention anything about a clue having information.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The statements are about entirely different subjects and don't provide a logical link between the information possessed by the players and the clues.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different concepts and aren't connected directly.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information about a clue having information.</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Each player receives information concerning the murder, and no players receive the same information.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>a clue has an information</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 talks about information received by players but doesn't specify how that information is received - whether it's through a clue or not.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because Statement 2 does not mention anything about "a clue".</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not mention any clue.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it implies that the information each player receives (which could be seen as a clue) contains information concerning the murder.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>As the players travel through the universe, they are permitted to ask questions about what information their fellow players possess.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>a question has an information</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. The second statement addresses players asking each other questions, but it does not specify that a question inherently contains information.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements discuss questions and information, but they are not logically connected. Statement 1 talks about a question containing information while Statement 2 discusses players asking each other questions about certain information. They are two different contexts.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>No, statement 2 does not support statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a question has an information</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. The hypothesis and evidence referred to in Statement 2 contains information, thus each question has an information.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Yes, statement 1 can be derived from statement 2. Given that the questions form a hypothesis for the murder circumstance and perpetrator, it indicates that the questions do have information.</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. In Statement 2, it is implied that the questions carry information about the murder circumstance and the perpetrator. Therefore, it could be concluded that a question (from those) has an information.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. The information in Statement 2 implies that the questions contain information regarding a hypothesis for the murder circumstance and perpetrator.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 supports statement 1. It shows how a specific question (in this case about a murder circumstance and perpetrator) can contain and provide information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No, Statement 1 cannot be inferred from Statement 2. The second statement does not provide information on what the murder hypothesis contains.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The communication of a murder hypothesis to all players (Statement 2) does not necessarily mean that the hypothesis has a murder weapon (Statement 1). The content of the hypothesis is not given in Statement 2.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 only says that a murder hypothesis is communicated to all players, but does not provide any details about what the hypothesis contains, such as a murder weapon.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement speaks about the communication of a "murder hypothesis" but does not provide information on whether the hypothesis includes a murder weapon or not.</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The information about the murder weapon is not mentioned in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information on whether the murder hypothesis includes a murder weapon.</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2. The reason is that the murder hypothesis, mentioned in Statement 2, is said to consist of a planet, perpetrator, and a murder weapon. This implies that a murder weapon is a part of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. It is stated in Statement 2 that a murder hypothesis includes a murder weapon. Therefore, it can be said that a hypothesis has a murder weapon as per Statement 1.</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2 because according to Statement 2, a murder hypothesis includes a murder weapon.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. Since a murder hypothesis in the game includes a murder weapon, it can be inferred that a hypothesis has a murder weapon.</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1 as it confirms the need for a murder weapon in formulating a hypothesis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. These two statements are about different topics and do not logically connect.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different subjects and do not provide a logical linkage between each other.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 does not provide information on the specifics of what the hypothesis contains or if a murder weapon is involved.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about players being informed upon revelation of the correct hypothesis, but it doesn't indicate that a murder weapon is necessarily part of the hypothesis.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 does not provide specific information about what the circumstances of the murder include; it does not explicitly state that a murder weapon is involved.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be directly derived from Statement 2. Statement 2 does not give specific information about what the circumstances of the murder might include or specifically mention a murder weapon.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 informs players about the circumstances of the murder when the correct hypothesis is announced, but it doesn't necessarily mean the hypothesis would include a specific murder weapon.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information about a murder weapon being part of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not imply Statement 1.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 talks about the rules of a game if a hypothesis is incorrect, but it doesn't mention anything specific about the content of the hypothesis, such as whether or not it includes a murder weapon.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. Statement 1 talks about a specific feature of a hypothesis (having a murder weapon) while Statement 2 discusses the consequences of an incorrect hypothesis in a game context; these two concepts are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded from Statement 2. Statement 2 doesn't provide any information about a murder weapon involved in a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements are about different aspects and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are talking about different topics. Statement 2 does not provide any information about a murder weapon being part of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. They are discussing different aspects of a hypothesis and there are no shared terms or concepts that would allow for inference from one to another.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements are regarding different subjects and Statement 2 does not provide any information relating to a murder weapon.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different aspects of a hypothesis and do not share a direct correlation.</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are not directly related and Statement 2 gives no information about the components of a hypothesis, such as a murder weapon.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because the two statements discuss different aspects. Statement 1 relates to the content of a hypothesis, while Statement 2 discusses the process of disproving a hypothesis and communication of that information.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 provides information about how information related to a disproved hypothesis is communicated, but does not provide information regarding the makeup or contents of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1. The two statements seem to be about different aspects of a game, with the first referring to a particular facet of a hypothesis (a murder weapon) and the second relating to the rules of the game. Without more context, there's not a clear link of support between the two.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>a hypothesis has a murder weapon</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 does not provide any specific information that a hypothesis has a murder weapon.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement does not provide any specific information about a murder weapon being part of the hypothesis.</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. While Statement 2 mentions a hypothesis related to a murder, it does not specifically mention a murder weapon.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Statement 2 does not provide specific information about a murder weapon being part of the hypothesis.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The second statement does not provide information about a murder weapon being part of the hypothesis.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide any information about a murder weapon being part of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 says that a murder hypothesis is communicated to all players, but it does not provide information that a hypothesis has a perpetrator.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide information about a perpetrator being part of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 tells us that a murder hypothesis is being communicated but does not provide information about whether the hypothesis includes a specific perpetrator.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The second statement discusses the communication of a murder hypothesis but does not specifically say that the hypothesis includes a perpetrator.</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The fact the murder hypothesis is communicated to all players (Statement 2) does not definitively assert that the hypothesis has a perpetrator (Statement 1).</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 doesn't provide any information regarding whether or not a hypothesis has a perpetrator.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2. Statement 2 shows that a hypothesis, specifically a murder hypothesis in the context of the game, includes a perpetrator among its elements.</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 explains the conditions for winning a game by making a correct hypothesis, but it does not explicitly state that a hypothesis has a perpetrator.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2. According to Statement 2, a murder hypothesis includes a perpetrator. Therefore, it affirms Statement 1 that a hypothesis has a perpetrator.</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. This is because Statement 2 describes a game involving a murder hypothesis, which must include a perpetrator according to the rules described. Therefore, it's reasonable to say that a hypothesis has a perpetrator, as detailed in Statement 1.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. According to Statement 2, a murder hypothesis (which is a form of a hypothesis) includes a perpetrator.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 supports statement 1. It provides a context (a game scenario) in which a hypothesis indeed includes a perpetrator as one of its elements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. These two statements discuss different subjects and have no logical connection or related implication.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements discuss different topics and the information in Statement 2 does not provide any details that could confirm or refute Statement 1.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2 as they discuss completely different subjects.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they are discussing two different subjects with no logical connection or progression.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements are unrelated.</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are discussing different components of a hypothesis within a game setting. Statement 2 does not provide any information about a perpetrator mentioned in Statement 1.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 does not provide information about a perpetrator in the hypothesis.</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement makes no mention or implication of a perpetrator existing in a hypothesis.</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The information in Statement 2 does not provide any specifics about the content or subject of the hypothesis, so there is no way to confirm whether the hypothesis involves a perpetrator.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement informs about the status of the hypothesis and the need to show evidence, not about the presence of a perpetrator in the hypothesis.</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 only discusses the consequences of an incorrect hypothesis in a game scenario, and it says nothing about a hypothesis having a perpetrator.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 makes no reference to a 'perpetrator' and therefore does not provide information about the contents of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements are dealing with different aspects of a hypothesis and do not logically connect to each other.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2, as these two statements discuss separate aspects of a hypothesis and are not logically connected.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 is about denial and informing players, it doesn't provide any information about a hypothesis having a perpetrator.</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 gives information about how a hypothesis is disproven and to whom that information is communicated, but it does not provide information about the content of the hypothesis itself (such as whether or not it has a perpetrator).</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. Statement 2 does not provide any information about a hypothesis having a perpetrator.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are discussing different aspects of a hypothesis.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements address different facets of a hypothetical situation and do not provide information about the same aspect. Statement 2 does not provide any information about the content of the hypothesis (whether it involves a perpetrator or not), hence Statement 1 cannot be derived from it.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The two statements discuss different aspects of a hypothesis and are not directly linked.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 doesn't provide any information about the contents or elements of a hypothesis, such as whether it includes a perpetrator.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>a hypothesis has a perpetrator</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can logically follow from Statement 2. Statement 2 clearly mentions that a hypothesis is formed for the murder circumstance and its perpetrator, indicating that a hypothesis has a perpetrator.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 1 can be concluded based on Statement 2. In Statement 2, it is mentioned that a hypothesis is formed related to a murder circumstance and a perpetrator. Hence, it indicates that a hypothesis has a perpetrator.</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Yes, Statement 2 supports Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>The murder hypothesis is communicated to all players.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. Statement 2 says nothing about a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements are about different aspects. Statement 1 is about the status of a hypothesis (i.e., it has been refuted), while Statement 2 is about the dissemination of a specific hypothesis (i.e., the murder hypothesis is communicated). Statement 2 provides no information about whether any hypothesis has been refuted.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 does not provide any information about a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 doesn't provide any information about a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>A player wins the game by announcing their murder hypothesis, consisting of a planet, a perpetrator, and a murder weapon at any time during their turn, and having the server determine that the hypothesis is correct.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The two statements are talking about different contexts of the term "hypothesis". Statement 2 is discussing a game scenario while Statement 1 is a general statement about hypotheses which could be in any context, but the context is not provided.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss different contexts of the term "hypothesis". While the first refers to a generic context, potentially related to scientific investigations, the second statement refers to a specific game scenario where a hypothesis is used to solve a murder mystery. It does not provide information about a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The solution is then broadcast to all players.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2. They are about different topics.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different topics and have no logical connection to each other.</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These two statements are about different concepts and do not provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. These two statements are not related to each other in any way.</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 as they are discussing different topics. Statement 1 is about hypothesis testing, while Statement 2 is about information dissemination or game theory.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements discuss completely different topics and are not related in any way.</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>When the correct hypothesis is announced, all players are informed of the circumstances of the murder.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The two statements discuss different concepts. Statement 1 talks about a hypothesis being refuted while Statement 2 discusses informing players about the circumstances of a murder when a correct hypothesis is announced.</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. These statements are about different aspects and don't provide information about each other.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. The two statements discuss different aspects and do not provide information about the same topic.</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2. The content and context of the two statements are unrelated.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement is talking about an event in which all players are informed of the circumstances of a murder when the correct hypothesis is announced, which has no correlation with the idea of a hypothesis having a refuted hypothesis in the first statement.</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Other players are informed that the hypothesis was refuted but need to be shown the piece of evidence that refuted the hypothesis.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about other players being informed about the hypothesis being refuted, but it doesn't state that a hypothesis has a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. The second statement talks about other players being informed about a refuted hypothesis, but it doesn't imply that a hypothesis has a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. While Statement 2 discusses a refuted hypothesis, it does not provide information about a hypothesis having another refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>If an announced hypothesis is incorrect, the player loses the game and cannot pose hypotheses any longer or make moves on the board but must continue refuting the hypotheses of other players.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The second statement does not provide information about a hypothesis having a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>If the hypothesis cannot be denied, all players are informed of that fact.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not provide information that would allow one to infer Statement 1.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2. The second statement talks about a situation where a hypothesis cannot be denied, while the first statement talks about a hypothesis being refuted. They address contrasting scenarios.</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. Statement 2 deals with the communication of the status of a hypothesis, not whether a hypothesis has a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2 because they are discussing two different aspects of a hypothesis. Statement 2 is about the communication of a hypothesis that cannot be denied while Statement 1 is about a hypothesis that has been refuted.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 informs about the condition when a hypothesis can't be denied, and doesn't provide information about whether or not a hypothesis can have a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>If a player can disprove the hypothesis, that information is communicated only to the inquiring player.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be derived from Statement 2. Both statements discuss hypotheses, but they refer to different contexts and ideas. Statement 2 talks about a player disproving a hypothesis and communicating that information, while Statement 1 refers to a hypothesis having a refuted hypothesis - there is no logical link between the two that will allow Statement 1 to be derived from Statement 2.</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot logically follow from Statement 2.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. The two statements do not contain the same subject matter. Statement 2 is talking about a player disproving a hypothesis, but it does not necessarily mean a hypothesis has a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>No, Statement 2 does not support Statement 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>The questions form a hypothesis for the murder circumstance and perpetrator, which the remaining players are invited to disprove with their evidence.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>a hypothesis has a refuted hypothesis</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be inferred from Statement 2.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be implied from Statement 2.</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be determined from Statement 2. The two statements deal with hypotheses, but Statement 2 doesn't provide any information about a hypothesis being refuted.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be directly derived from Statement 2. Statement 2 mentions the process of forming a hypothesis and the possibility of disproving it but does not directly state that a hypothesis has a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>No, Statement 1 does not logically follow from Statement 2. Statement 2 is about a specific scenario of forming a hypothesis in a game context to solve a murder, while Statement 1 is a general statement about a hypothesis having a refuted hypothesis, which is not derived from or connected to the specific scenario discussed in Statement 2.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>No, Statement 1 cannot be concluded based on Statement 2. Statement 2 talks about forming a hypothesis and attempting to disprove it, but it does not specifically state that a hypothesis has a refuted hypothesis.</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Yes, statement 2 supports statement 1 as it provides an example of a hypothesis that can be refuted by evidence.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
